--- a/Course_Requirements/Activity Logs&Task Summaries/Jesse/Activity Log SummaryWk12.xlsx
+++ b/Course_Requirements/Activity Logs&Task Summaries/Jesse/Activity Log SummaryWk12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\uni\2019\S2-FINAL!!\CSC3600-ICT Professional Project\A3Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\Documents\GitHub\CSC3600-ICT-Professional-Project\Course_Requirements\Activity Logs&amp;Task Summaries\Jesse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87BC9CD5-4278-46F1-B11A-EC5CC2CCDE2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13F91BB-67D4-4143-B8C2-51F463F70511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{2C90FF03-35F6-430D-80AA-644AEA31AD14}"/>
+    <workbookView xWindow="6075" yWindow="480" windowWidth="14565" windowHeight="11385" xr2:uid="{2C90FF03-35F6-430D-80AA-644AEA31AD14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Stage</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>• The task summary sheets should also for a solid evidence for the claim of contribution to the project work.</t>
+  </si>
+  <si>
+    <t>Jesse Hare</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Project Build</t>
   </si>
 </sst>
 </file>
@@ -675,7 +684,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,9 +700,13 @@
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="C1" s="13"/>
-      <c r="D1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -717,15 +730,23 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="13"/>
       <c r="E5" s="15"/>
@@ -765,13 +786,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C10" s="19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E10" s="15"/>
     </row>
